--- a/data/pca/factorExposure/factorExposure_2019-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1284500652422788</v>
+        <v>0.07998286399551256</v>
       </c>
       <c r="C2">
-        <v>0.01851762120508377</v>
+        <v>0.01554942565363181</v>
       </c>
       <c r="D2">
-        <v>-0.02476523086898361</v>
+        <v>-0.04038930171414735</v>
       </c>
       <c r="E2">
-        <v>-0.08714695746254721</v>
+        <v>0.109075443645229</v>
       </c>
       <c r="F2">
-        <v>0.09398358519133407</v>
+        <v>0.08433887004762507</v>
       </c>
       <c r="G2">
-        <v>0.129914841932899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09012010851994103</v>
+      </c>
+      <c r="H2">
+        <v>0.08439560081067138</v>
+      </c>
+      <c r="I2">
+        <v>-0.02445686064823424</v>
+      </c>
+      <c r="J2">
+        <v>-0.0269400712287451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2193475257798133</v>
+        <v>0.1648177003733607</v>
       </c>
       <c r="C3">
-        <v>-0.08355891927368714</v>
+        <v>0.08183416364600993</v>
       </c>
       <c r="D3">
-        <v>0.07079448738699405</v>
+        <v>0.03192288660294828</v>
       </c>
       <c r="E3">
-        <v>-0.3052774258650909</v>
+        <v>0.2459653792649897</v>
       </c>
       <c r="F3">
-        <v>0.03134942720880168</v>
+        <v>0.2975871565502477</v>
       </c>
       <c r="G3">
-        <v>0.3758404443007647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02735181025802061</v>
+      </c>
+      <c r="H3">
+        <v>0.2807410678322431</v>
+      </c>
+      <c r="I3">
+        <v>-0.1438713281183998</v>
+      </c>
+      <c r="J3">
+        <v>-0.3332333588874245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1012681230952254</v>
+        <v>0.07386537757358899</v>
       </c>
       <c r="C4">
-        <v>-0.0229455187481369</v>
+        <v>0.03394867210314401</v>
       </c>
       <c r="D4">
-        <v>-0.006847950277691612</v>
+        <v>-0.02523644997453608</v>
       </c>
       <c r="E4">
-        <v>-0.06942843051969745</v>
+        <v>0.03615296992038322</v>
       </c>
       <c r="F4">
-        <v>0.05218131414160552</v>
+        <v>0.08870668031014715</v>
       </c>
       <c r="G4">
-        <v>0.0344803063278295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03607433798662417</v>
+      </c>
+      <c r="H4">
+        <v>0.0319168293808146</v>
+      </c>
+      <c r="I4">
+        <v>-0.02836059202865404</v>
+      </c>
+      <c r="J4">
+        <v>-0.04495911144003061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01366467989674601</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003042759362105292</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.0003449186694456122</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.003035781534475883</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003472605164177121</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01898606131074096</v>
+      </c>
+      <c r="H6">
+        <v>0.002721041640793414</v>
+      </c>
+      <c r="I6">
+        <v>0.001521449655658966</v>
+      </c>
+      <c r="J6">
+        <v>-0.0001947499560508718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04373894620760658</v>
+        <v>0.03412002730543079</v>
       </c>
       <c r="C7">
-        <v>-0.005560178639247211</v>
+        <v>0.0181827610915746</v>
       </c>
       <c r="D7">
-        <v>-0.02518644453543164</v>
+        <v>-0.01920045615936092</v>
       </c>
       <c r="E7">
-        <v>-0.08579031240343621</v>
+        <v>0.03413958217091755</v>
       </c>
       <c r="F7">
-        <v>-0.02620748419993878</v>
+        <v>0.05042680328536476</v>
       </c>
       <c r="G7">
-        <v>0.01223551710941275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01231795652563926</v>
+      </c>
+      <c r="H7">
+        <v>0.04666340616904582</v>
+      </c>
+      <c r="I7">
+        <v>-0.001986552824604563</v>
+      </c>
+      <c r="J7">
+        <v>-0.01558708155494293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04507217805114568</v>
+        <v>0.03347235426403729</v>
       </c>
       <c r="C8">
-        <v>-0.03676830849968992</v>
+        <v>0.0377990661385632</v>
       </c>
       <c r="D8">
-        <v>0.006420561136171099</v>
+        <v>-0.008158388639739535</v>
       </c>
       <c r="E8">
-        <v>-0.06784469959044917</v>
+        <v>0.03626303251275961</v>
       </c>
       <c r="F8">
-        <v>0.002227584701278152</v>
+        <v>0.07729547800212461</v>
       </c>
       <c r="G8">
-        <v>0.05209779235019477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.001083135994278613</v>
+      </c>
+      <c r="H8">
+        <v>0.05592079466806991</v>
+      </c>
+      <c r="I8">
+        <v>-0.02886645127927978</v>
+      </c>
+      <c r="J8">
+        <v>-0.039591884293108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0875083946679614</v>
+        <v>0.0634547138446525</v>
       </c>
       <c r="C9">
-        <v>-0.02530317933571126</v>
+        <v>0.03462753212079195</v>
       </c>
       <c r="D9">
-        <v>-0.02027666652837224</v>
+        <v>-0.0261556175649909</v>
       </c>
       <c r="E9">
-        <v>-0.06561965149891169</v>
+        <v>0.03370896109789427</v>
       </c>
       <c r="F9">
-        <v>0.03485660506758787</v>
+        <v>0.08918312667835637</v>
       </c>
       <c r="G9">
-        <v>0.03138528495708039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02572391938711862</v>
+      </c>
+      <c r="H9">
+        <v>0.02931421879779264</v>
+      </c>
+      <c r="I9">
+        <v>-0.00961610240543055</v>
+      </c>
+      <c r="J9">
+        <v>-0.008733287551381473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01529347234775788</v>
+        <v>0.0110905500598588</v>
       </c>
       <c r="C10">
-        <v>0.1615186350372653</v>
+        <v>-0.1601818543336155</v>
       </c>
       <c r="D10">
-        <v>0.01397555476418038</v>
+        <v>0.01561403385108857</v>
       </c>
       <c r="E10">
-        <v>-0.04850207420596236</v>
+        <v>0.04944657112938336</v>
       </c>
       <c r="F10">
-        <v>0.01320180070037785</v>
+        <v>0.03303295193430941</v>
       </c>
       <c r="G10">
-        <v>-0.002817344650787119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02096825046943818</v>
+      </c>
+      <c r="H10">
+        <v>-0.008626931045526805</v>
+      </c>
+      <c r="I10">
+        <v>-0.1175341814085823</v>
+      </c>
+      <c r="J10">
+        <v>-0.01268737331520629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05727534099281494</v>
+        <v>0.04865180397009847</v>
       </c>
       <c r="C11">
-        <v>-0.00220467466002217</v>
+        <v>0.02148023806945286</v>
       </c>
       <c r="D11">
-        <v>0.01088521646740618</v>
+        <v>-0.006108155664645841</v>
       </c>
       <c r="E11">
-        <v>-0.04068703944704285</v>
+        <v>0.03909139265861454</v>
       </c>
       <c r="F11">
-        <v>0.01167044162040519</v>
+        <v>0.02341195367689296</v>
       </c>
       <c r="G11">
-        <v>-0.01410794134091297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002899794147796621</v>
+      </c>
+      <c r="H11">
+        <v>0.01423633786812782</v>
+      </c>
+      <c r="I11">
+        <v>0.01632298448810304</v>
+      </c>
+      <c r="J11">
+        <v>-0.01151934754878024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04335134038081086</v>
+        <v>0.04387447378882842</v>
       </c>
       <c r="C12">
-        <v>-0.01143152360732069</v>
+        <v>0.02273923931859248</v>
       </c>
       <c r="D12">
-        <v>0.008685922588123375</v>
+        <v>-0.006020757525601799</v>
       </c>
       <c r="E12">
-        <v>-0.03238305050796152</v>
+        <v>0.01562202061660994</v>
       </c>
       <c r="F12">
-        <v>0.007198195293079986</v>
+        <v>0.02064923078660436</v>
       </c>
       <c r="G12">
-        <v>0.002071684188145124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002490645933266396</v>
+      </c>
+      <c r="H12">
+        <v>0.01064700092651807</v>
+      </c>
+      <c r="I12">
+        <v>0.01871048458183792</v>
+      </c>
+      <c r="J12">
+        <v>-0.006388663988313499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06188584916834959</v>
+        <v>0.04176254279343052</v>
       </c>
       <c r="C13">
-        <v>-0.01588503889610824</v>
+        <v>0.02202745558871748</v>
       </c>
       <c r="D13">
-        <v>0.02091914385316275</v>
+        <v>-0.007545699716795215</v>
       </c>
       <c r="E13">
-        <v>-0.1033597280022401</v>
+        <v>0.08165907449846298</v>
       </c>
       <c r="F13">
-        <v>0.02513918957141132</v>
+        <v>0.06498015953819024</v>
       </c>
       <c r="G13">
-        <v>0.04870119914498876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0083587010065133</v>
+      </c>
+      <c r="H13">
+        <v>0.06071298694112128</v>
+      </c>
+      <c r="I13">
+        <v>-0.01166055072755263</v>
+      </c>
+      <c r="J13">
+        <v>-0.02039758913161095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03906894885827818</v>
+        <v>0.02855345234334424</v>
       </c>
       <c r="C14">
-        <v>-0.005814781053149327</v>
+        <v>0.01434565213907806</v>
       </c>
       <c r="D14">
-        <v>-0.01841163685669293</v>
+        <v>-0.02309695319395873</v>
       </c>
       <c r="E14">
-        <v>-0.02099563321056303</v>
+        <v>0.01845412685957238</v>
       </c>
       <c r="F14">
-        <v>-0.004853148500702529</v>
+        <v>0.03633864027949842</v>
       </c>
       <c r="G14">
-        <v>0.03850661106900033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0146328267207269</v>
+      </c>
+      <c r="H14">
+        <v>0.05837216400100556</v>
+      </c>
+      <c r="I14">
+        <v>-0.0191847147060832</v>
+      </c>
+      <c r="J14">
+        <v>0.005892588968085478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04899440926799273</v>
+        <v>0.04182198956122112</v>
       </c>
       <c r="C16">
-        <v>-0.02147227129352233</v>
+        <v>0.02941593378930998</v>
       </c>
       <c r="D16">
-        <v>0.02027958308492583</v>
+        <v>-0.001028436022474864</v>
       </c>
       <c r="E16">
-        <v>-0.03616331708791411</v>
+        <v>0.0322932516161237</v>
       </c>
       <c r="F16">
-        <v>0.005359686223941898</v>
+        <v>0.02254307801158791</v>
       </c>
       <c r="G16">
-        <v>-0.01401605687404386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005024257626525182</v>
+      </c>
+      <c r="H16">
+        <v>0.01562894542235125</v>
+      </c>
+      <c r="I16">
+        <v>0.01452690621417019</v>
+      </c>
+      <c r="J16">
+        <v>-0.01170761401584543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05488067113733701</v>
+        <v>0.0455546982838534</v>
       </c>
       <c r="C19">
-        <v>-0.02875536281415886</v>
+        <v>0.03564328428626133</v>
       </c>
       <c r="D19">
-        <v>0.006875454071056579</v>
+        <v>-0.009922297173612876</v>
       </c>
       <c r="E19">
-        <v>-0.0738160193690378</v>
+        <v>0.06141151381639767</v>
       </c>
       <c r="F19">
-        <v>-0.001678751525749869</v>
+        <v>0.06803839989937283</v>
       </c>
       <c r="G19">
-        <v>0.0588948196434329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.003007376435289625</v>
+      </c>
+      <c r="H19">
+        <v>0.08717893582065664</v>
+      </c>
+      <c r="I19">
+        <v>-0.04239397379804712</v>
+      </c>
+      <c r="J19">
+        <v>-0.0167895018534354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03931064502827972</v>
+        <v>0.01937504851480005</v>
       </c>
       <c r="C20">
-        <v>-0.03278609483704522</v>
+        <v>0.03333586551860579</v>
       </c>
       <c r="D20">
-        <v>-0.003717620516496203</v>
+        <v>-0.01607011779902633</v>
       </c>
       <c r="E20">
-        <v>-0.06655194596325185</v>
+        <v>0.04045624751993914</v>
       </c>
       <c r="F20">
-        <v>-0.01262665330808006</v>
+        <v>0.05998439712550745</v>
       </c>
       <c r="G20">
-        <v>0.04205200250944424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.009796801013358379</v>
+      </c>
+      <c r="H20">
+        <v>0.07630341185266479</v>
+      </c>
+      <c r="I20">
+        <v>-0.0174005648202992</v>
+      </c>
+      <c r="J20">
+        <v>-0.04842472835714763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04093483311014474</v>
+        <v>0.01939975552636851</v>
       </c>
       <c r="C21">
-        <v>-0.01453983452763758</v>
+        <v>0.02445330284958653</v>
       </c>
       <c r="D21">
-        <v>0.01653379198512241</v>
+        <v>0.002609447744517679</v>
       </c>
       <c r="E21">
-        <v>-0.07998266478059493</v>
+        <v>0.04300907981879698</v>
       </c>
       <c r="F21">
-        <v>0.0442714407090285</v>
+        <v>0.06822484685301154</v>
       </c>
       <c r="G21">
-        <v>0.04566728502520375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01980864048999001</v>
+      </c>
+      <c r="H21">
+        <v>0.04261667762062781</v>
+      </c>
+      <c r="I21">
+        <v>0.006419803697637929</v>
+      </c>
+      <c r="J21">
+        <v>0.01269919247120445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04908166801724431</v>
+        <v>0.04180857630785455</v>
       </c>
       <c r="C24">
-        <v>-0.01231102102467474</v>
+        <v>0.01895494600296506</v>
       </c>
       <c r="D24">
-        <v>0.009239772564705004</v>
+        <v>-0.006155749764799948</v>
       </c>
       <c r="E24">
-        <v>-0.04639792893149065</v>
+        <v>0.03456117861202755</v>
       </c>
       <c r="F24">
-        <v>0.005896949217545779</v>
+        <v>0.02762675295122465</v>
       </c>
       <c r="G24">
-        <v>-0.009649975077266972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01000486929018758</v>
+      </c>
+      <c r="H24">
+        <v>0.01602635028058926</v>
+      </c>
+      <c r="I24">
+        <v>0.01255822807877332</v>
+      </c>
+      <c r="J24">
+        <v>-0.01911742327898091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04971665345458659</v>
+        <v>0.04292920798350926</v>
       </c>
       <c r="C25">
-        <v>-0.004191047772676101</v>
+        <v>0.01982200863393949</v>
       </c>
       <c r="D25">
-        <v>0.01155961852776702</v>
+        <v>-0.003402268270888624</v>
       </c>
       <c r="E25">
-        <v>-0.04305962816417167</v>
+        <v>0.03672007742485366</v>
       </c>
       <c r="F25">
-        <v>0.01406322122747084</v>
+        <v>0.03216412617580437</v>
       </c>
       <c r="G25">
-        <v>-0.0117651378927382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002452313291172268</v>
+      </c>
+      <c r="H25">
+        <v>0.00995194950266984</v>
+      </c>
+      <c r="I25">
+        <v>0.01479945129223679</v>
+      </c>
+      <c r="J25">
+        <v>-0.008150821330371571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.006020730230206947</v>
+        <v>0.01222932300317451</v>
       </c>
       <c r="C26">
-        <v>-0.01578829421318313</v>
+        <v>0.01702084154058673</v>
       </c>
       <c r="D26">
-        <v>-0.004138077508901635</v>
+        <v>0.001126112215361799</v>
       </c>
       <c r="E26">
-        <v>-0.04864520898685257</v>
+        <v>0.04348717762559658</v>
       </c>
       <c r="F26">
-        <v>0.02535342290239358</v>
+        <v>0.03050806820873944</v>
       </c>
       <c r="G26">
-        <v>0.01900016700305442</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0103451800075653</v>
+      </c>
+      <c r="H26">
+        <v>0.03775833722122082</v>
+      </c>
+      <c r="I26">
+        <v>0.002413589525308228</v>
+      </c>
+      <c r="J26">
+        <v>-0.01722591259600281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1139063787225983</v>
+        <v>0.0870227218372854</v>
       </c>
       <c r="C27">
-        <v>-0.01503648573583204</v>
+        <v>0.02645031420399684</v>
       </c>
       <c r="D27">
-        <v>-0.004874845233272746</v>
+        <v>-0.02924023655633998</v>
       </c>
       <c r="E27">
-        <v>-0.1101093959696791</v>
+        <v>0.0463554327952</v>
       </c>
       <c r="F27">
-        <v>0.0247719594223913</v>
+        <v>0.07442433109230084</v>
       </c>
       <c r="G27">
-        <v>-0.00657573213053737</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.001369660568195992</v>
+      </c>
+      <c r="H27">
+        <v>0.01061833518983563</v>
+      </c>
+      <c r="I27">
+        <v>-0.00349667409021737</v>
+      </c>
+      <c r="J27">
+        <v>-0.0294746888660488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.01457421678762249</v>
+        <v>0.02467965357402974</v>
       </c>
       <c r="C28">
-        <v>0.2408797167238312</v>
+        <v>-0.2325150635664055</v>
       </c>
       <c r="D28">
-        <v>0.02338244076683838</v>
+        <v>0.02249605823854863</v>
       </c>
       <c r="E28">
-        <v>-0.02169548780773375</v>
+        <v>0.03918825395689826</v>
       </c>
       <c r="F28">
-        <v>0.01160001970091695</v>
+        <v>0.0272072591808375</v>
       </c>
       <c r="G28">
-        <v>-0.02641289532483013</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02598492606148203</v>
+      </c>
+      <c r="H28">
+        <v>-0.03123099292331655</v>
+      </c>
+      <c r="I28">
+        <v>-0.1651427892468237</v>
+      </c>
+      <c r="J28">
+        <v>-0.02875909246740436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02148734168680968</v>
+        <v>0.01984477153395339</v>
       </c>
       <c r="C29">
-        <v>-0.01630474248046671</v>
+        <v>0.01829309264374878</v>
       </c>
       <c r="D29">
-        <v>-0.02079066989155758</v>
+        <v>-0.02173188628678428</v>
       </c>
       <c r="E29">
-        <v>-0.03003781699493855</v>
+        <v>0.0141940300052777</v>
       </c>
       <c r="F29">
-        <v>0.009582495545700795</v>
+        <v>0.04092015465320534</v>
       </c>
       <c r="G29">
-        <v>0.04019749574388014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01518843905631372</v>
+      </c>
+      <c r="H29">
+        <v>0.05708807077553767</v>
+      </c>
+      <c r="I29">
+        <v>-0.009754087292301183</v>
+      </c>
+      <c r="J29">
+        <v>0.01540607607851614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1062596420319097</v>
+        <v>0.09986516356169854</v>
       </c>
       <c r="C30">
-        <v>-0.008047337385901826</v>
+        <v>0.0353003318994225</v>
       </c>
       <c r="D30">
-        <v>-0.003434199312777656</v>
+        <v>-0.03179995617901744</v>
       </c>
       <c r="E30">
-        <v>-0.1238967530975033</v>
+        <v>0.08961969629544622</v>
       </c>
       <c r="F30">
-        <v>0.03882997919164723</v>
+        <v>0.06987160904409391</v>
       </c>
       <c r="G30">
-        <v>-0.07232469464417206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01493658445346305</v>
+      </c>
+      <c r="H30">
+        <v>0.01463463590504572</v>
+      </c>
+      <c r="I30">
+        <v>0.02883207430067933</v>
+      </c>
+      <c r="J30">
+        <v>0.002533775051954559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05685534837160055</v>
+        <v>0.05946006628080682</v>
       </c>
       <c r="C31">
-        <v>-0.01027499966539034</v>
+        <v>0.01772672301673813</v>
       </c>
       <c r="D31">
-        <v>-0.02064357968849913</v>
+        <v>-0.01956674093333163</v>
       </c>
       <c r="E31">
-        <v>0.02096470858280501</v>
+        <v>0.0114816689639074</v>
       </c>
       <c r="F31">
-        <v>0.004817802347637514</v>
+        <v>-0.005915038287110721</v>
       </c>
       <c r="G31">
-        <v>0.01059995362830615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03562755537889597</v>
+      </c>
+      <c r="H31">
+        <v>0.0474852621314311</v>
+      </c>
+      <c r="I31">
+        <v>-0.01616885613028339</v>
+      </c>
+      <c r="J31">
+        <v>0.0151370814366832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07137612966928256</v>
+        <v>0.04849236577003749</v>
       </c>
       <c r="C32">
-        <v>-0.0236751682498067</v>
+        <v>0.04268825402039229</v>
       </c>
       <c r="D32">
-        <v>0.0003277939670404568</v>
+        <v>-0.02292760725156954</v>
       </c>
       <c r="E32">
-        <v>-0.1174644688965988</v>
+        <v>0.05456870761649394</v>
       </c>
       <c r="F32">
-        <v>-0.005693993119243869</v>
+        <v>0.08188331535032138</v>
       </c>
       <c r="G32">
-        <v>0.04125666501051214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01109044055690233</v>
+      </c>
+      <c r="H32">
+        <v>0.05520202755284357</v>
+      </c>
+      <c r="I32">
+        <v>-0.01939842054520233</v>
+      </c>
+      <c r="J32">
+        <v>0.001192054296909321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07074695049425052</v>
+        <v>0.05847454161346097</v>
       </c>
       <c r="C33">
-        <v>-0.02855985823274053</v>
+        <v>0.04422769838771173</v>
       </c>
       <c r="D33">
-        <v>-0.001713448829855666</v>
+        <v>-0.007198253765996908</v>
       </c>
       <c r="E33">
-        <v>-0.06771528225866051</v>
+        <v>0.06349161722414073</v>
       </c>
       <c r="F33">
-        <v>0.04329865678633878</v>
+        <v>0.05421813773936723</v>
       </c>
       <c r="G33">
-        <v>0.02326604690857619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01749044663550896</v>
+      </c>
+      <c r="H33">
+        <v>0.05123255315814109</v>
+      </c>
+      <c r="I33">
+        <v>0.01534291090407983</v>
+      </c>
+      <c r="J33">
+        <v>-0.01213592663949116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04731900187305511</v>
+        <v>0.04171947807874225</v>
       </c>
       <c r="C34">
-        <v>-0.01184847097503735</v>
+        <v>0.02426636257422275</v>
       </c>
       <c r="D34">
-        <v>0.008326208506221108</v>
+        <v>-0.009020808159894353</v>
       </c>
       <c r="E34">
-        <v>-0.02553958127890546</v>
+        <v>0.0266086321843476</v>
       </c>
       <c r="F34">
-        <v>-0.00143764093589824</v>
+        <v>0.02486932352370316</v>
       </c>
       <c r="G34">
-        <v>0.005114215623142133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0001072410773715582</v>
+      </c>
+      <c r="H34">
+        <v>0.02030899329611629</v>
+      </c>
+      <c r="I34">
+        <v>0.01428582660544809</v>
+      </c>
+      <c r="J34">
+        <v>-0.001019289671457334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01301518263135443</v>
+        <v>0.01473079476419588</v>
       </c>
       <c r="C36">
-        <v>0.009894679703322577</v>
+        <v>0.0009647458113918334</v>
       </c>
       <c r="D36">
-        <v>-0.004850002198792394</v>
+        <v>-0.007654363455634323</v>
       </c>
       <c r="E36">
-        <v>-0.02227218146348952</v>
+        <v>0.01662959112664144</v>
       </c>
       <c r="F36">
-        <v>0.01185943829647465</v>
+        <v>0.02488499524481127</v>
       </c>
       <c r="G36">
-        <v>0.01201607424798964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01540316825844487</v>
+      </c>
+      <c r="H36">
+        <v>0.03246865160236893</v>
+      </c>
+      <c r="I36">
+        <v>-0.004455648156070226</v>
+      </c>
+      <c r="J36">
+        <v>0.01560386026069993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05634275093784017</v>
+        <v>0.03205404121384559</v>
       </c>
       <c r="C38">
-        <v>-0.00183120901892567</v>
+        <v>0.007959966368905381</v>
       </c>
       <c r="D38">
-        <v>-0.02103794986561765</v>
+        <v>-0.008190189037469141</v>
       </c>
       <c r="E38">
-        <v>-0.03225462459258077</v>
+        <v>0.02942581128344079</v>
       </c>
       <c r="F38">
-        <v>0.0093994285196268</v>
+        <v>0.04262993904621951</v>
       </c>
       <c r="G38">
-        <v>0.03942278492007525</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0220973239036932</v>
+      </c>
+      <c r="H38">
+        <v>0.01935991512258668</v>
+      </c>
+      <c r="I38">
+        <v>0.003253724301686695</v>
+      </c>
+      <c r="J38">
+        <v>0.02869207635294218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07585118123379581</v>
+        <v>0.05863380693600242</v>
       </c>
       <c r="C39">
-        <v>-0.01274561654911855</v>
+        <v>0.03543138842651715</v>
       </c>
       <c r="D39">
-        <v>0.005125666065239181</v>
+        <v>-0.01712369019743605</v>
       </c>
       <c r="E39">
-        <v>-0.04595068579653018</v>
+        <v>0.05270182915801022</v>
       </c>
       <c r="F39">
-        <v>0.02798621717744672</v>
+        <v>0.03203370135795452</v>
       </c>
       <c r="G39">
-        <v>-0.00652463258996847</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01136829891378689</v>
+      </c>
+      <c r="H39">
+        <v>0.01690739694401635</v>
+      </c>
+      <c r="I39">
+        <v>0.03291066032631824</v>
+      </c>
+      <c r="J39">
+        <v>-0.007947498489277227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07374534578535419</v>
+        <v>0.05719539599535307</v>
       </c>
       <c r="C40">
-        <v>-0.02738585456058645</v>
+        <v>0.03362591154959845</v>
       </c>
       <c r="D40">
-        <v>0.008660508253112464</v>
+        <v>-0.0245449611493639</v>
       </c>
       <c r="E40">
-        <v>-0.1058783659180296</v>
+        <v>0.09079351762952648</v>
       </c>
       <c r="F40">
-        <v>0.03850708366087409</v>
+        <v>0.06232069358504375</v>
       </c>
       <c r="G40">
-        <v>0.09437206592888933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.002811671777202094</v>
+      </c>
+      <c r="H40">
+        <v>0.08048668504192066</v>
+      </c>
+      <c r="I40">
+        <v>-0.004545454803948189</v>
+      </c>
+      <c r="J40">
+        <v>-0.04465944314051783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004484900560005585</v>
+        <v>0.00153087220205756</v>
       </c>
       <c r="C41">
-        <v>-0.0117414879607704</v>
+        <v>0.01052234185801272</v>
       </c>
       <c r="D41">
-        <v>-0.01467490941173044</v>
+        <v>-0.005353410628425062</v>
       </c>
       <c r="E41">
-        <v>-0.009218044006829991</v>
+        <v>0.007663753935827816</v>
       </c>
       <c r="F41">
-        <v>0.02147059084308009</v>
+        <v>0.01598251095268399</v>
       </c>
       <c r="G41">
-        <v>0.02660978565511293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02737698435749826</v>
+      </c>
+      <c r="H41">
+        <v>0.04047253161626869</v>
+      </c>
+      <c r="I41">
+        <v>-0.02455878335018059</v>
+      </c>
+      <c r="J41">
+        <v>-0.001540529111653488</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1358082093760996</v>
+        <v>0.2392722089319552</v>
       </c>
       <c r="C42">
-        <v>-0.1816981940297673</v>
+        <v>0.1533329136269557</v>
       </c>
       <c r="D42">
-        <v>0.9245026639531136</v>
+        <v>0.9089502133195584</v>
       </c>
       <c r="E42">
-        <v>0.1328196060756042</v>
+        <v>0.02285681915825783</v>
       </c>
       <c r="F42">
-        <v>-0.03915871143642865</v>
+        <v>-0.2456926383469255</v>
       </c>
       <c r="G42">
-        <v>-0.1342119265781907</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.003970899119803554</v>
+      </c>
+      <c r="H42">
+        <v>0.004120381630994091</v>
+      </c>
+      <c r="I42">
+        <v>-0.05798490720833249</v>
+      </c>
+      <c r="J42">
+        <v>-0.008919386956593328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008354791537252958</v>
+        <v>0.003647931846844434</v>
       </c>
       <c r="C43">
-        <v>-0.0140714782872442</v>
+        <v>0.01311110196604485</v>
       </c>
       <c r="D43">
-        <v>-0.01516382593664211</v>
+        <v>-0.006505257119774036</v>
       </c>
       <c r="E43">
-        <v>-0.03199363619187182</v>
+        <v>0.01775850584679078</v>
       </c>
       <c r="F43">
-        <v>-0.0007704793127514134</v>
+        <v>0.02333161366844043</v>
       </c>
       <c r="G43">
-        <v>0.02013222140824062</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008338572375533405</v>
+      </c>
+      <c r="H43">
+        <v>0.03883796366067665</v>
+      </c>
+      <c r="I43">
+        <v>-0.01495392528253549</v>
+      </c>
+      <c r="J43">
+        <v>-0.004570343840340807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04254225796353732</v>
+        <v>0.02815807931407293</v>
       </c>
       <c r="C44">
-        <v>-0.03675346846576794</v>
+        <v>0.03184698886844144</v>
       </c>
       <c r="D44">
-        <v>0.005573205743741192</v>
+        <v>-0.002772407847774054</v>
       </c>
       <c r="E44">
-        <v>-0.1066199769064662</v>
+        <v>0.08306413373602405</v>
       </c>
       <c r="F44">
-        <v>0.07709612071040033</v>
+        <v>0.09019888297519381</v>
       </c>
       <c r="G44">
-        <v>0.133295097633365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03297392761842922</v>
+      </c>
+      <c r="H44">
+        <v>0.1186176496882557</v>
+      </c>
+      <c r="I44">
+        <v>-0.02281375998746281</v>
+      </c>
+      <c r="J44">
+        <v>-0.0128143178779462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02228659459116067</v>
+        <v>0.02186984084151756</v>
       </c>
       <c r="C46">
-        <v>-0.01323584412581678</v>
+        <v>0.02516411503203074</v>
       </c>
       <c r="D46">
-        <v>-0.02325323239603572</v>
+        <v>-0.01992406875966376</v>
       </c>
       <c r="E46">
-        <v>-0.02164707757949805</v>
+        <v>0.02952305165618844</v>
       </c>
       <c r="F46">
-        <v>0.02525489534225893</v>
+        <v>0.03674882315118057</v>
       </c>
       <c r="G46">
-        <v>0.0422911759531259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01866738063405961</v>
+      </c>
+      <c r="H46">
+        <v>0.06199379443409332</v>
+      </c>
+      <c r="I46">
+        <v>-0.01748048040671445</v>
+      </c>
+      <c r="J46">
+        <v>-0.008339974765195476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08099278708976519</v>
+        <v>0.08908680534321188</v>
       </c>
       <c r="C47">
-        <v>-0.005073508021698053</v>
+        <v>0.01676618602133769</v>
       </c>
       <c r="D47">
-        <v>-0.02310180048270109</v>
+        <v>-0.02474453112857466</v>
       </c>
       <c r="E47">
-        <v>0.0227576541144832</v>
+        <v>-0.004485726061421106</v>
       </c>
       <c r="F47">
-        <v>0.0004674463640523029</v>
+        <v>-0.002899560587817631</v>
       </c>
       <c r="G47">
-        <v>0.03440159273212134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03301201794787761</v>
+      </c>
+      <c r="H47">
+        <v>0.06450661824032189</v>
+      </c>
+      <c r="I47">
+        <v>-0.0238788038051152</v>
+      </c>
+      <c r="J47">
+        <v>0.002130535685724389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0161851343282805</v>
+        <v>0.01671058769589807</v>
       </c>
       <c r="C48">
-        <v>-0.01618336502488562</v>
+        <v>0.01894733200976675</v>
       </c>
       <c r="D48">
-        <v>-0.01183677695535798</v>
+        <v>-0.009344557426347521</v>
       </c>
       <c r="E48">
-        <v>-0.03277920793873995</v>
+        <v>0.01833594618712945</v>
       </c>
       <c r="F48">
-        <v>0.01895530987646466</v>
+        <v>0.03154630164196306</v>
       </c>
       <c r="G48">
-        <v>0.01033514036354995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.009018716782734882</v>
+      </c>
+      <c r="H48">
+        <v>0.02454657820092037</v>
+      </c>
+      <c r="I48">
+        <v>-0.01524712296491275</v>
+      </c>
+      <c r="J48">
+        <v>-0.002253983583168318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07890634306203323</v>
+        <v>0.08251980166520897</v>
       </c>
       <c r="C50">
-        <v>-0.01876033359617598</v>
+        <v>0.02795635964595833</v>
       </c>
       <c r="D50">
-        <v>-0.02526717963871871</v>
+        <v>-0.02025413083856213</v>
       </c>
       <c r="E50">
-        <v>0.02792818101101917</v>
+        <v>-0.005431075265119292</v>
       </c>
       <c r="F50">
-        <v>-0.003859305968346432</v>
+        <v>0.004154864103191708</v>
       </c>
       <c r="G50">
-        <v>0.01470014425715273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.004704852561855976</v>
+      </c>
+      <c r="H50">
+        <v>0.05330072935086942</v>
+      </c>
+      <c r="I50">
+        <v>-0.008253525995304635</v>
+      </c>
+      <c r="J50">
+        <v>0.04799797956031291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.07197810028782894</v>
+        <v>0.04892903210752547</v>
       </c>
       <c r="C51">
-        <v>0.02128593659945824</v>
+        <v>-0.003312562668261439</v>
       </c>
       <c r="D51">
-        <v>0.009203634322224199</v>
+        <v>-0.01062882659707317</v>
       </c>
       <c r="E51">
-        <v>-0.06542879618371654</v>
+        <v>0.07910645434517893</v>
       </c>
       <c r="F51">
-        <v>0.0610563594981424</v>
+        <v>0.05291243933596222</v>
       </c>
       <c r="G51">
-        <v>0.01534199660679458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04768579091475904</v>
+      </c>
+      <c r="H51">
+        <v>0.06270367153540761</v>
+      </c>
+      <c r="I51">
+        <v>-0.03668275573741221</v>
+      </c>
+      <c r="J51">
+        <v>-0.003604126831378858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.143337715739544</v>
+        <v>0.1281619094969928</v>
       </c>
       <c r="C53">
-        <v>-0.009287380420333028</v>
+        <v>0.03423859005455768</v>
       </c>
       <c r="D53">
-        <v>-0.04936225257776165</v>
+        <v>-0.04845951405830097</v>
       </c>
       <c r="E53">
-        <v>0.03407962041824657</v>
+        <v>-0.02611507179802743</v>
       </c>
       <c r="F53">
-        <v>-0.008835637204021767</v>
+        <v>-0.02061515320477888</v>
       </c>
       <c r="G53">
-        <v>0.0004972212125594738</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02364948381156377</v>
+      </c>
+      <c r="H53">
+        <v>0.006340777508920562</v>
+      </c>
+      <c r="I53">
+        <v>-0.03260999968251861</v>
+      </c>
+      <c r="J53">
+        <v>-0.04765989568613013</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02759412203138972</v>
+        <v>0.02280216888653855</v>
       </c>
       <c r="C54">
-        <v>0.006084163038892563</v>
+        <v>0.006403610710015649</v>
       </c>
       <c r="D54">
-        <v>-0.02223895969982392</v>
+        <v>-0.02373642664138648</v>
       </c>
       <c r="E54">
-        <v>-0.0284634466536282</v>
+        <v>0.01678674451841192</v>
       </c>
       <c r="F54">
-        <v>0.03580123633558548</v>
+        <v>0.04335011691070603</v>
       </c>
       <c r="G54">
-        <v>0.04882292660503201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03042182543163351</v>
+      </c>
+      <c r="H54">
+        <v>0.05562057592653781</v>
+      </c>
+      <c r="I54">
+        <v>-0.03433315987544357</v>
+      </c>
+      <c r="J54">
+        <v>0.02339778466072753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.0969231090291222</v>
+        <v>0.1013331556304605</v>
       </c>
       <c r="C55">
-        <v>0.003259454037296975</v>
+        <v>0.01838180287419761</v>
       </c>
       <c r="D55">
-        <v>-0.04088910589460683</v>
+        <v>-0.03087457860990011</v>
       </c>
       <c r="E55">
-        <v>-0.00186511955479782</v>
+        <v>-0.03677406391473532</v>
       </c>
       <c r="F55">
-        <v>-0.02428478097568151</v>
+        <v>0.007163640646892424</v>
       </c>
       <c r="G55">
-        <v>-0.007447214930771195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0110520977678156</v>
+      </c>
+      <c r="H55">
+        <v>0.02075060620396335</v>
+      </c>
+      <c r="I55">
+        <v>-0.01276070667406876</v>
+      </c>
+      <c r="J55">
+        <v>-0.03789636162545948</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1772926749733336</v>
+        <v>0.1694183593399024</v>
       </c>
       <c r="C56">
-        <v>0.01954947739123753</v>
+        <v>0.01558396072388861</v>
       </c>
       <c r="D56">
-        <v>-0.08473240713375919</v>
+        <v>-0.08458680484064807</v>
       </c>
       <c r="E56">
-        <v>0.0565905236537527</v>
+        <v>-0.06947760755647296</v>
       </c>
       <c r="F56">
-        <v>-0.06597309723911526</v>
+        <v>-0.03470399690576468</v>
       </c>
       <c r="G56">
-        <v>-0.02566226297843085</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02242562903283438</v>
+      </c>
+      <c r="H56">
+        <v>-0.03853717021446537</v>
+      </c>
+      <c r="I56">
+        <v>0.005547339361411134</v>
+      </c>
+      <c r="J56">
+        <v>-0.06984113068139274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09228831331923865</v>
+        <v>0.07010965340258621</v>
       </c>
       <c r="C57">
-        <v>-0.02181669244882598</v>
+        <v>0.02760119835608296</v>
       </c>
       <c r="D57">
-        <v>-0.0202678225327062</v>
+        <v>-0.01303181287461606</v>
       </c>
       <c r="E57">
-        <v>-0.06519625387933307</v>
+        <v>0.05429628205631582</v>
       </c>
       <c r="F57">
-        <v>0.01761501290720827</v>
+        <v>0.04566452783774645</v>
       </c>
       <c r="G57">
-        <v>0.04117636971268045</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.005501833455272152</v>
+      </c>
+      <c r="H57">
+        <v>0.04198609773355907</v>
+      </c>
+      <c r="I57">
+        <v>0.01453088319943449</v>
+      </c>
+      <c r="J57">
+        <v>-0.03780529149668569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1655716613375554</v>
+        <v>0.1970659644494594</v>
       </c>
       <c r="C58">
-        <v>0.008942201034763748</v>
+        <v>0.04164384294335741</v>
       </c>
       <c r="D58">
-        <v>0.06484158341334732</v>
+        <v>0.009115015337190146</v>
       </c>
       <c r="E58">
-        <v>-0.1341446775217637</v>
+        <v>0.1576442519684425</v>
       </c>
       <c r="F58">
-        <v>-0.08345335821637136</v>
+        <v>0.1139252710946763</v>
       </c>
       <c r="G58">
-        <v>0.2688407275859182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1640533454449088</v>
+      </c>
+      <c r="H58">
+        <v>0.3261063920444638</v>
+      </c>
+      <c r="I58">
+        <v>-0.04532174421373608</v>
+      </c>
+      <c r="J58">
+        <v>0.6177344905862566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.00252676718891484</v>
+        <v>0.02815180024504015</v>
       </c>
       <c r="C59">
-        <v>0.2038535495363895</v>
+        <v>-0.1982617773340561</v>
       </c>
       <c r="D59">
-        <v>-0.01069602143286796</v>
+        <v>-0.01263184905007866</v>
       </c>
       <c r="E59">
-        <v>-0.04576576175492555</v>
+        <v>0.06099124859280779</v>
       </c>
       <c r="F59">
-        <v>0.01470904284337034</v>
+        <v>0.02230508020641667</v>
       </c>
       <c r="G59">
-        <v>-0.02746306952270857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00359941512463596</v>
+      </c>
+      <c r="H59">
+        <v>-0.02175021560806054</v>
+      </c>
+      <c r="I59">
+        <v>-0.07667225722477476</v>
+      </c>
+      <c r="J59">
+        <v>0.02330649708297575</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1878095039512609</v>
+        <v>0.18479195163453</v>
       </c>
       <c r="C60">
-        <v>0.1164440118041609</v>
+        <v>-0.05602594675219481</v>
       </c>
       <c r="D60">
-        <v>-0.01261049015094944</v>
+        <v>-0.02915412619480735</v>
       </c>
       <c r="E60">
-        <v>-0.1697104458937074</v>
+        <v>0.2045431715555072</v>
       </c>
       <c r="F60">
-        <v>0.0749619230474778</v>
+        <v>0.07584362129967046</v>
       </c>
       <c r="G60">
-        <v>-0.1627073847040594</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0618724415502985</v>
+      </c>
+      <c r="H60">
+        <v>-0.2391038130986041</v>
+      </c>
+      <c r="I60">
+        <v>0.1026476776601646</v>
+      </c>
+      <c r="J60">
+        <v>0.004111555174521415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04824793845083297</v>
+        <v>0.03827056280244211</v>
       </c>
       <c r="C61">
-        <v>-0.003299528639771419</v>
+        <v>0.01987093017079151</v>
       </c>
       <c r="D61">
-        <v>0.01269836247969425</v>
+        <v>-0.002621978955569865</v>
       </c>
       <c r="E61">
-        <v>-0.04613720100007624</v>
+        <v>0.03897244566360372</v>
       </c>
       <c r="F61">
-        <v>0.03000215087629004</v>
+        <v>0.02667705416096832</v>
       </c>
       <c r="G61">
-        <v>-0.02098594703741492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.007396525839290092</v>
+      </c>
+      <c r="H61">
+        <v>0.002283165787177246</v>
+      </c>
+      <c r="I61">
+        <v>0.03758760933026709</v>
+      </c>
+      <c r="J61">
+        <v>0.01478587073834126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04388850245221074</v>
+        <v>0.02977034179032416</v>
       </c>
       <c r="C63">
-        <v>0.009418346522629108</v>
+        <v>0.01393488916960992</v>
       </c>
       <c r="D63">
-        <v>-0.0130014652533846</v>
+        <v>-0.01339898734581361</v>
       </c>
       <c r="E63">
-        <v>-0.03525245442545932</v>
+        <v>0.02266801770791036</v>
       </c>
       <c r="F63">
-        <v>0.008094671897408388</v>
+        <v>0.02105721415741823</v>
       </c>
       <c r="G63">
-        <v>0.01086439017527188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.006307069046995353</v>
+      </c>
+      <c r="H63">
+        <v>0.0446985605090754</v>
+      </c>
+      <c r="I63">
+        <v>-0.03274402263350568</v>
+      </c>
+      <c r="J63">
+        <v>-0.02676058015957771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08899257237892387</v>
+        <v>0.06349937775167033</v>
       </c>
       <c r="C64">
-        <v>-0.02985154398312278</v>
+        <v>0.040352394582686</v>
       </c>
       <c r="D64">
-        <v>-0.0529605008430915</v>
+        <v>-0.03632929151255691</v>
       </c>
       <c r="E64">
-        <v>-0.05240057316049179</v>
+        <v>0.0177709962433221</v>
       </c>
       <c r="F64">
-        <v>0.1029672780953528</v>
+        <v>0.07304111975772032</v>
       </c>
       <c r="G64">
-        <v>-0.06575032791370537</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06534910104886114</v>
+      </c>
+      <c r="H64">
+        <v>-0.01678930157812532</v>
+      </c>
+      <c r="I64">
+        <v>-0.02476872281122573</v>
+      </c>
+      <c r="J64">
+        <v>-0.06869105424261639</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01505444545328012</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003280452225700253</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.0004107975226744335</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004319881403036126</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001658938757250658</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01996942348799923</v>
+      </c>
+      <c r="H65">
+        <v>-0.0008177697401206563</v>
+      </c>
+      <c r="I65">
+        <v>0.003636504984858127</v>
+      </c>
+      <c r="J65">
+        <v>-0.0001607961017502719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09910911053161819</v>
+        <v>0.07096388982673356</v>
       </c>
       <c r="C66">
-        <v>-0.01953020770104304</v>
+        <v>0.04936502887104902</v>
       </c>
       <c r="D66">
-        <v>-0.03154595233543273</v>
+        <v>-0.04381965832301353</v>
       </c>
       <c r="E66">
-        <v>-0.08199398252217664</v>
+        <v>0.06770542229545955</v>
       </c>
       <c r="F66">
-        <v>0.05376052897202991</v>
+        <v>0.04294462447858899</v>
       </c>
       <c r="G66">
-        <v>-0.01037893474345601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0120982903544502</v>
+      </c>
+      <c r="H66">
+        <v>0.008685901479288733</v>
+      </c>
+      <c r="I66">
+        <v>0.04714469866504367</v>
+      </c>
+      <c r="J66">
+        <v>-0.03667570578467439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06379339580424634</v>
+        <v>0.04241111839878681</v>
       </c>
       <c r="C67">
-        <v>0.02056993941400594</v>
+        <v>-0.007226374663823846</v>
       </c>
       <c r="D67">
-        <v>-0.009897769558067232</v>
+        <v>-0.006538302606945193</v>
       </c>
       <c r="E67">
-        <v>-0.02530872470277322</v>
+        <v>0.02733183190622246</v>
       </c>
       <c r="F67">
-        <v>0.008567729382823639</v>
+        <v>0.02794763081073056</v>
       </c>
       <c r="G67">
-        <v>0.03571769956631354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02805125749679599</v>
+      </c>
+      <c r="H67">
+        <v>0.002323834010877581</v>
+      </c>
+      <c r="I67">
+        <v>0.03850184976103126</v>
+      </c>
+      <c r="J67">
+        <v>0.01079809965417124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.003245322635639205</v>
+        <v>0.03595352713220488</v>
       </c>
       <c r="C68">
-        <v>0.2439767135872849</v>
+        <v>-0.2347573546722755</v>
       </c>
       <c r="D68">
-        <v>0.006991502654566491</v>
+        <v>-0.003118283481790469</v>
       </c>
       <c r="E68">
-        <v>-0.03022556076539152</v>
+        <v>0.04657871410493773</v>
       </c>
       <c r="F68">
-        <v>-0.002508224312608002</v>
+        <v>0.0187487974922475</v>
       </c>
       <c r="G68">
-        <v>-0.01807454991559301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.007954293827315429</v>
+      </c>
+      <c r="H68">
+        <v>-0.02629070510391315</v>
+      </c>
+      <c r="I68">
+        <v>-0.1680228491885264</v>
+      </c>
+      <c r="J68">
+        <v>0.01878786577209665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06649048639275212</v>
+        <v>0.06996582887140546</v>
       </c>
       <c r="C69">
-        <v>-0.004281189250312436</v>
+        <v>0.01510667302923606</v>
       </c>
       <c r="D69">
-        <v>-0.02899159720043167</v>
+        <v>-0.03029653516426247</v>
       </c>
       <c r="E69">
-        <v>0.0074559200653215</v>
+        <v>0.006416890837784922</v>
       </c>
       <c r="F69">
-        <v>-0.001341913533988624</v>
+        <v>-0.0009297418916655567</v>
       </c>
       <c r="G69">
-        <v>0.01549325054947708</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02324372467025867</v>
+      </c>
+      <c r="H69">
+        <v>0.04489949967151086</v>
+      </c>
+      <c r="I69">
+        <v>0.001007127832598451</v>
+      </c>
+      <c r="J69">
+        <v>0.002757448855604995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.003324085046102255</v>
+        <v>0.04135058569030758</v>
       </c>
       <c r="C71">
-        <v>0.258100725949207</v>
+        <v>-0.248192934449502</v>
       </c>
       <c r="D71">
-        <v>0.009066397745867668</v>
+        <v>0.01560348975350381</v>
       </c>
       <c r="E71">
-        <v>-0.05715794253799727</v>
+        <v>0.07727991047781453</v>
       </c>
       <c r="F71">
-        <v>0.02100463617658425</v>
+        <v>0.01416340932775412</v>
       </c>
       <c r="G71">
-        <v>-0.1076007970475352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01679889151497932</v>
+      </c>
+      <c r="H71">
+        <v>-0.04306168464291921</v>
+      </c>
+      <c r="I71">
+        <v>-0.143798831909414</v>
+      </c>
+      <c r="J71">
+        <v>0.029599454601902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1179736233774738</v>
+        <v>0.1186529489281899</v>
       </c>
       <c r="C72">
-        <v>0.01839066935810824</v>
+        <v>0.00536627475009089</v>
       </c>
       <c r="D72">
-        <v>-0.02806554984954993</v>
+        <v>-0.0577156221560245</v>
       </c>
       <c r="E72">
-        <v>-0.08014240900702072</v>
+        <v>0.06025287576610638</v>
       </c>
       <c r="F72">
-        <v>0.01283559687966387</v>
+        <v>0.06109166593137082</v>
       </c>
       <c r="G72">
-        <v>0.04406557940965358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03640501188663584</v>
+      </c>
+      <c r="H72">
+        <v>-0.0008469935303664217</v>
+      </c>
+      <c r="I72">
+        <v>0.01646361355539278</v>
+      </c>
+      <c r="J72">
+        <v>0.118876146659933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2793342733549953</v>
+        <v>0.2723169573288362</v>
       </c>
       <c r="C73">
-        <v>0.202554429914532</v>
+        <v>-0.1102947693243005</v>
       </c>
       <c r="D73">
-        <v>0.05021505495278028</v>
+        <v>0.005362419096459066</v>
       </c>
       <c r="E73">
-        <v>-0.3054627662524034</v>
+        <v>0.3284491976243747</v>
       </c>
       <c r="F73">
-        <v>0.1037607177726764</v>
+        <v>0.1018695900199161</v>
       </c>
       <c r="G73">
-        <v>-0.3658230576088945</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1356655853292737</v>
+      </c>
+      <c r="H73">
+        <v>-0.4341425562296782</v>
+      </c>
+      <c r="I73">
+        <v>0.3467126927373123</v>
+      </c>
+      <c r="J73">
+        <v>0.09245273272769008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1555381661053725</v>
+        <v>0.1508905272834766</v>
       </c>
       <c r="C74">
-        <v>0.007500376642134187</v>
+        <v>0.01860560194341323</v>
       </c>
       <c r="D74">
-        <v>-0.05096351463037391</v>
+        <v>-0.04742766512978731</v>
       </c>
       <c r="E74">
-        <v>-0.006658604148335778</v>
+        <v>-0.03095639923491452</v>
       </c>
       <c r="F74">
-        <v>-0.04339550026653088</v>
+        <v>-0.02574319334813383</v>
       </c>
       <c r="G74">
-        <v>-0.02187113727795315</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01569481842748849</v>
+      </c>
+      <c r="H74">
+        <v>-0.01580322180770461</v>
+      </c>
+      <c r="I74">
+        <v>0.008681533977387608</v>
+      </c>
+      <c r="J74">
+        <v>-0.0951574249981733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2349985347021592</v>
+        <v>0.2424164984119241</v>
       </c>
       <c r="C75">
-        <v>0.01315556107758709</v>
+        <v>0.01957943225675487</v>
       </c>
       <c r="D75">
-        <v>-0.06921922556867882</v>
+        <v>-0.1015063255123759</v>
       </c>
       <c r="E75">
-        <v>0.114415104483274</v>
+        <v>-0.09990826332227291</v>
       </c>
       <c r="F75">
-        <v>-0.07152039195317599</v>
+        <v>-0.08931973688920725</v>
       </c>
       <c r="G75">
-        <v>-0.02552001274448648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006612161309101101</v>
+      </c>
+      <c r="H75">
+        <v>-0.01796624412349367</v>
+      </c>
+      <c r="I75">
+        <v>-0.0531195249101527</v>
+      </c>
+      <c r="J75">
+        <v>-0.1179460135142465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2407189826519733</v>
+        <v>0.2648069234567454</v>
       </c>
       <c r="C76">
-        <v>0.01743584686124064</v>
+        <v>0.01412693210727854</v>
       </c>
       <c r="D76">
-        <v>-0.1135587547453068</v>
+        <v>-0.1292872631738237</v>
       </c>
       <c r="E76">
-        <v>0.09542880312342887</v>
+        <v>-0.1439348575538761</v>
       </c>
       <c r="F76">
-        <v>-0.08238725357050716</v>
+        <v>-0.08900344056672084</v>
       </c>
       <c r="G76">
-        <v>-0.03993449189967805</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04581568827570839</v>
+      </c>
+      <c r="H76">
+        <v>-0.03145598728850749</v>
+      </c>
+      <c r="I76">
+        <v>0.02823747676697299</v>
+      </c>
+      <c r="J76">
+        <v>-0.1357659467194207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1303263408870294</v>
+        <v>0.134362370242595</v>
       </c>
       <c r="C77">
-        <v>-0.01535009595287721</v>
+        <v>0.04965131684635022</v>
       </c>
       <c r="D77">
-        <v>0.07252917402654729</v>
+        <v>0.04455396170443582</v>
       </c>
       <c r="E77">
-        <v>-0.1581122805649511</v>
+        <v>0.1188590513258431</v>
       </c>
       <c r="F77">
-        <v>0.01662305727563532</v>
+        <v>0.1256030785587473</v>
       </c>
       <c r="G77">
-        <v>0.1557060863106378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01500892641696445</v>
+      </c>
+      <c r="H77">
+        <v>0.1874933642995854</v>
+      </c>
+      <c r="I77">
+        <v>-0.1650104991392682</v>
+      </c>
+      <c r="J77">
+        <v>-0.1014179866328281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09427359646587975</v>
+        <v>0.09019014523311709</v>
       </c>
       <c r="C78">
-        <v>-0.03018831534101805</v>
+        <v>0.05783092829866993</v>
       </c>
       <c r="D78">
-        <v>0.02470432103679255</v>
+        <v>0.0001080783355289462</v>
       </c>
       <c r="E78">
-        <v>-0.06093297493356115</v>
+        <v>0.0521401490642592</v>
       </c>
       <c r="F78">
-        <v>0.0133625889238754</v>
+        <v>0.07048719171694529</v>
       </c>
       <c r="G78">
-        <v>-0.01141187941051203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.004601314599215867</v>
+      </c>
+      <c r="H78">
+        <v>0.02565387468156346</v>
+      </c>
+      <c r="I78">
+        <v>-0.03101048438396139</v>
+      </c>
+      <c r="J78">
+        <v>-0.01882620566442387</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06389265720188608</v>
+        <v>0.1108579631182815</v>
       </c>
       <c r="C80">
-        <v>-0.001232938729751769</v>
+        <v>-0.1195251793854483</v>
       </c>
       <c r="D80">
-        <v>0.01103276190251826</v>
+        <v>0.2123353835200937</v>
       </c>
       <c r="E80">
-        <v>-0.02046402019521945</v>
+        <v>-0.6182771996328769</v>
       </c>
       <c r="F80">
-        <v>-0.05831544480891479</v>
+        <v>0.7076339124189832</v>
       </c>
       <c r="G80">
-        <v>0.3718431650704454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.003364436199942123</v>
+      </c>
+      <c r="H80">
+        <v>-0.1321583220014428</v>
+      </c>
+      <c r="I80">
+        <v>0.07344159299795121</v>
+      </c>
+      <c r="J80">
+        <v>0.08480641839386438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1605421449470346</v>
+        <v>0.1752500256067167</v>
       </c>
       <c r="C81">
-        <v>0.01511570598878604</v>
+        <v>0.00505705776879802</v>
       </c>
       <c r="D81">
-        <v>-0.0617641897749101</v>
+        <v>-0.08480000253469905</v>
       </c>
       <c r="E81">
-        <v>0.1134930968944171</v>
+        <v>-0.1130067492815608</v>
       </c>
       <c r="F81">
-        <v>-0.09831006885688279</v>
+        <v>-0.09195665569860247</v>
       </c>
       <c r="G81">
-        <v>-0.02321804790583601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02009477298247558</v>
+      </c>
+      <c r="H81">
+        <v>-0.00985293783920837</v>
+      </c>
+      <c r="I81">
+        <v>-0.02692680953710103</v>
+      </c>
+      <c r="J81">
+        <v>-0.06581004675416534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08165005957413901</v>
+        <v>0.0641815119523737</v>
       </c>
       <c r="C83">
-        <v>-0.03464837882053175</v>
+        <v>0.04077417117360273</v>
       </c>
       <c r="D83">
-        <v>0.09194261034236764</v>
+        <v>0.03928472864354958</v>
       </c>
       <c r="E83">
-        <v>-0.01955088675760164</v>
+        <v>0.0547153009719326</v>
       </c>
       <c r="F83">
-        <v>0.06094009473895085</v>
+        <v>0.02017656399957416</v>
       </c>
       <c r="G83">
-        <v>0.03384955322933299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04710576053866556</v>
+      </c>
+      <c r="H83">
+        <v>0.04029857062860891</v>
+      </c>
+      <c r="I83">
+        <v>-0.02556227963579228</v>
+      </c>
+      <c r="J83">
+        <v>-0.08802733924287767</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2372312099658589</v>
+        <v>0.2527510754465265</v>
       </c>
       <c r="C85">
-        <v>-0.04838019935286784</v>
+        <v>0.05415748655147407</v>
       </c>
       <c r="D85">
-        <v>-0.06604369363765668</v>
+        <v>-0.08952237756034831</v>
       </c>
       <c r="E85">
-        <v>0.1296533247960567</v>
+        <v>-0.13838300832238</v>
       </c>
       <c r="F85">
-        <v>-0.06830208402181472</v>
+        <v>-0.08599745707689775</v>
       </c>
       <c r="G85">
-        <v>0.0001991104461859388</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.002150741436569841</v>
+      </c>
+      <c r="H85">
+        <v>0.01770837296281726</v>
+      </c>
+      <c r="I85">
+        <v>-0.03977843263173584</v>
+      </c>
+      <c r="J85">
+        <v>-0.1420272177207725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.0486957852370487</v>
+        <v>0.0290015072147328</v>
       </c>
       <c r="C86">
-        <v>-0.03457840560547077</v>
+        <v>0.04251575567600438</v>
       </c>
       <c r="D86">
-        <v>-0.0025804188487168</v>
+        <v>-0.005288053717404709</v>
       </c>
       <c r="E86">
-        <v>-0.04923595434669584</v>
+        <v>0.03266081696110986</v>
       </c>
       <c r="F86">
-        <v>-0.004612038942781311</v>
+        <v>0.06039598375590849</v>
       </c>
       <c r="G86">
-        <v>0.02998965294880847</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.002447111498022404</v>
+      </c>
+      <c r="H86">
+        <v>0.05406490825370477</v>
+      </c>
+      <c r="I86">
+        <v>-0.05534585923871139</v>
+      </c>
+      <c r="J86">
+        <v>0.002170801219153162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02599611067191049</v>
+        <v>0.03590050693253933</v>
       </c>
       <c r="C87">
-        <v>0.05370584861348215</v>
+        <v>-0.02198346086099462</v>
       </c>
       <c r="D87">
-        <v>-0.01329358844781197</v>
+        <v>-0.00502389354906988</v>
       </c>
       <c r="E87">
-        <v>-0.0563238388798618</v>
+        <v>0.07413125154668784</v>
       </c>
       <c r="F87">
-        <v>0.06008189996983629</v>
+        <v>0.05933412730288685</v>
       </c>
       <c r="G87">
-        <v>-0.1403856465069088</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02389161127060356</v>
+      </c>
+      <c r="H87">
+        <v>-0.01032875090099402</v>
+      </c>
+      <c r="I87">
+        <v>0.009334035677085744</v>
+      </c>
+      <c r="J87">
+        <v>0.07944856579183879</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03747622551177705</v>
+        <v>0.02438859897533218</v>
       </c>
       <c r="C88">
-        <v>-0.02420119059325226</v>
+        <v>0.01639101738450966</v>
       </c>
       <c r="D88">
-        <v>-0.009219543190033182</v>
+        <v>-0.01196646047916448</v>
       </c>
       <c r="E88">
-        <v>0.004223426396590638</v>
+        <v>-0.02122645192294142</v>
       </c>
       <c r="F88">
-        <v>-0.01400539058813117</v>
+        <v>0.01822729287912197</v>
       </c>
       <c r="G88">
-        <v>0.0438785764331593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02577447690327281</v>
+      </c>
+      <c r="H88">
+        <v>0.04169084518820171</v>
+      </c>
+      <c r="I88">
+        <v>0.02338984355004572</v>
+      </c>
+      <c r="J88">
+        <v>0.01823549452963644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01571418735208412</v>
+        <v>0.05628381893538772</v>
       </c>
       <c r="C89">
-        <v>0.424637233940344</v>
+        <v>-0.39480230957947</v>
       </c>
       <c r="D89">
-        <v>0.09994627783273073</v>
+        <v>0.04018702869889639</v>
       </c>
       <c r="E89">
-        <v>0.04298271035001752</v>
+        <v>0.06849136898574384</v>
       </c>
       <c r="F89">
-        <v>0.02029891707231569</v>
+        <v>-0.02935188225263321</v>
       </c>
       <c r="G89">
-        <v>0.03889384883369334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.07672977369419702</v>
+      </c>
+      <c r="H89">
+        <v>0.007691044973057529</v>
+      </c>
+      <c r="I89">
+        <v>-0.2918013450651751</v>
+      </c>
+      <c r="J89">
+        <v>-0.03377905499976818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01364415805799627</v>
+        <v>0.03565085397220011</v>
       </c>
       <c r="C90">
-        <v>0.3072447620464342</v>
+        <v>-0.3341824415330517</v>
       </c>
       <c r="D90">
-        <v>0.02630717588618171</v>
+        <v>0.02399568054626987</v>
       </c>
       <c r="E90">
-        <v>-0.02489116644548326</v>
+        <v>0.03782643728005895</v>
       </c>
       <c r="F90">
-        <v>0.01300755159932169</v>
+        <v>0.01341147811876561</v>
       </c>
       <c r="G90">
-        <v>-0.06757183529196389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02208601438551638</v>
+      </c>
+      <c r="H90">
+        <v>-0.03325820320355707</v>
+      </c>
+      <c r="I90">
+        <v>-0.2090528813868694</v>
+      </c>
+      <c r="J90">
+        <v>0.0101978916885529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3005657316885075</v>
+        <v>0.3151781262717884</v>
       </c>
       <c r="C91">
-        <v>-0.01816768726551662</v>
+        <v>0.03877553438536745</v>
       </c>
       <c r="D91">
-        <v>-0.08225910993712539</v>
+        <v>-0.1021593905015484</v>
       </c>
       <c r="E91">
-        <v>0.255958459026058</v>
+        <v>-0.2245592480845613</v>
       </c>
       <c r="F91">
-        <v>-0.1840326036725188</v>
+        <v>-0.1843710076156937</v>
       </c>
       <c r="G91">
-        <v>0.07489774076928443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0378272730650691</v>
+      </c>
+      <c r="H91">
+        <v>-0.01962130421250048</v>
+      </c>
+      <c r="I91">
+        <v>-0.07304514219811835</v>
+      </c>
+      <c r="J91">
+        <v>-0.2627389534324138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03502473286791732</v>
+        <v>0.07157862499485954</v>
       </c>
       <c r="C92">
-        <v>0.4423527813714923</v>
+        <v>-0.4630786946846989</v>
       </c>
       <c r="D92">
-        <v>0.180816840311237</v>
+        <v>0.06415990842721402</v>
       </c>
       <c r="E92">
-        <v>0.1123556681564183</v>
+        <v>-0.0806028430169561</v>
       </c>
       <c r="F92">
-        <v>-0.1221793592223512</v>
+        <v>-0.1308881838016381</v>
       </c>
       <c r="G92">
-        <v>0.4664132969052663</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04098096835102913</v>
+      </c>
+      <c r="H92">
+        <v>0.5248091393567706</v>
+      </c>
+      <c r="I92">
+        <v>0.6603237291030997</v>
+      </c>
+      <c r="J92">
+        <v>-0.1196550573842532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.02887816524389258</v>
+        <v>0.03319421823962185</v>
       </c>
       <c r="C93">
-        <v>0.3688987136179215</v>
+        <v>-0.405027660295212</v>
       </c>
       <c r="D93">
-        <v>0.06966355769196739</v>
+        <v>0.04950147395735372</v>
       </c>
       <c r="E93">
-        <v>0.05227913546694168</v>
+        <v>0.02919944663084787</v>
       </c>
       <c r="F93">
-        <v>-0.02607667341740383</v>
+        <v>-0.05222880008659733</v>
       </c>
       <c r="G93">
-        <v>0.01282163911700206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04185109158938327</v>
+      </c>
+      <c r="H93">
+        <v>-0.04200524771332235</v>
+      </c>
+      <c r="I93">
+        <v>-0.2017568192667781</v>
+      </c>
+      <c r="J93">
+        <v>-0.01412790500091651</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2879072334092834</v>
+        <v>0.3173448968624756</v>
       </c>
       <c r="C94">
-        <v>0.04127091108250103</v>
+        <v>-0.007585879942020156</v>
       </c>
       <c r="D94">
-        <v>-0.05704654483825127</v>
+        <v>-0.1503085729656881</v>
       </c>
       <c r="E94">
-        <v>0.346225303563431</v>
+        <v>-0.2495033531258069</v>
       </c>
       <c r="F94">
-        <v>-0.4651751227472504</v>
+        <v>-0.2772340849522068</v>
       </c>
       <c r="G94">
-        <v>-0.09894865844924501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.178854710053163</v>
+      </c>
+      <c r="H94">
+        <v>0.07942957341982762</v>
+      </c>
+      <c r="I94">
+        <v>-0.1390903739428743</v>
+      </c>
+      <c r="J94">
+        <v>0.4377764812142516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2032167404170178</v>
+        <v>0.1421914049115266</v>
       </c>
       <c r="C95">
-        <v>0.0324615683655439</v>
+        <v>0.05954291951522639</v>
       </c>
       <c r="D95">
-        <v>-0.02348040782026747</v>
+        <v>-0.04429680967226536</v>
       </c>
       <c r="E95">
-        <v>0.5028265611372055</v>
+        <v>-0.002354829684350919</v>
       </c>
       <c r="F95">
-        <v>0.7789983560877802</v>
+        <v>-0.05651693270322664</v>
       </c>
       <c r="G95">
-        <v>0.1101162660086324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9292912615431786</v>
+      </c>
+      <c r="H95">
+        <v>-0.08872704163886394</v>
+      </c>
+      <c r="I95">
+        <v>0.06862778990822491</v>
+      </c>
+      <c r="J95">
+        <v>0.2197015837393597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2177894835706793</v>
+        <v>0.208262199247407</v>
       </c>
       <c r="C98">
-        <v>0.1339410957498529</v>
+        <v>-0.07042941080427764</v>
       </c>
       <c r="D98">
-        <v>0.03800082967766916</v>
+        <v>0.01215612671958107</v>
       </c>
       <c r="E98">
-        <v>-0.1044330836948348</v>
+        <v>0.1901898746698236</v>
       </c>
       <c r="F98">
-        <v>0.05839291135562306</v>
+        <v>0.02172117972135265</v>
       </c>
       <c r="G98">
-        <v>-0.2497733617192632</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06560621085697967</v>
+      </c>
+      <c r="H98">
+        <v>-0.3058969356717213</v>
+      </c>
+      <c r="I98">
+        <v>0.2073589720970347</v>
+      </c>
+      <c r="J98">
+        <v>-0.004912365709061484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02125609203830767</v>
+        <v>0.01330678308330785</v>
       </c>
       <c r="C101">
-        <v>-0.01659605736588317</v>
+        <v>0.02854836236452369</v>
       </c>
       <c r="D101">
-        <v>-0.02234893297179833</v>
+        <v>-0.0279598757882189</v>
       </c>
       <c r="E101">
-        <v>-0.03072848135847808</v>
+        <v>0.03322572035249041</v>
       </c>
       <c r="F101">
-        <v>0.009490290686485143</v>
+        <v>0.05948820794551043</v>
       </c>
       <c r="G101">
-        <v>0.04021430348560134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.005057198153028192</v>
+      </c>
+      <c r="H101">
+        <v>0.1176023906662284</v>
+      </c>
+      <c r="I101">
+        <v>0.0006489099965553372</v>
+      </c>
+      <c r="J101">
+        <v>0.1505275653036776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.116665863141298</v>
+        <v>0.120381746661647</v>
       </c>
       <c r="C102">
-        <v>-0.005046101765434947</v>
+        <v>0.02546154304892229</v>
       </c>
       <c r="D102">
-        <v>-0.04950090950358327</v>
+        <v>-0.05307293157219722</v>
       </c>
       <c r="E102">
-        <v>0.0783550089574304</v>
+        <v>-0.08067638683724529</v>
       </c>
       <c r="F102">
-        <v>-0.005821868506983851</v>
+        <v>-0.04327884366566305</v>
       </c>
       <c r="G102">
-        <v>0.004459140174784873</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02694691095337087</v>
+      </c>
+      <c r="H102">
+        <v>-0.01120898801992538</v>
+      </c>
+      <c r="I102">
+        <v>-0.04018874712909178</v>
+      </c>
+      <c r="J102">
+        <v>-0.04952750032538724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01766270413026677</v>
+        <v>0.03097245144230516</v>
       </c>
       <c r="C103">
-        <v>0.002554594471672287</v>
+        <v>0.004352810157285715</v>
       </c>
       <c r="D103">
-        <v>-0.01852705142447853</v>
+        <v>-0.02027907822598326</v>
       </c>
       <c r="E103">
-        <v>0.02652293054597054</v>
+        <v>-0.03065876442970819</v>
       </c>
       <c r="F103">
-        <v>-0.02006151827115088</v>
+        <v>-0.001016632784069991</v>
       </c>
       <c r="G103">
-        <v>-0.01473310623285343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01274890866076963</v>
+      </c>
+      <c r="H103">
+        <v>0.01071641039589734</v>
+      </c>
+      <c r="I103">
+        <v>-0.02816466404657261</v>
+      </c>
+      <c r="J103">
+        <v>-0.007070524263322674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
